--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_2_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_2_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003601864560660584</v>
+        <v>3.436315094629272e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003601864560660584</v>
+        <v>3.436315094629272e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.23152045982106</v>
+        <v>49.88170959139953</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[9.078408452116136, 67.38463246752598]</t>
+          <t>[24.483702775165867, 75.27971640763319]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0113159780510077</v>
+        <v>0.0002676659720017849</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0113159780510077</v>
+        <v>0.0002676659720017849</v>
       </c>
       <c r="P2" t="n">
-        <v>2.471763589310888</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.7673424137311953, 3.176184764890581]</t>
+          <t>[1.3396581285578097, 2.496921488438735]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8.097435610920911e-09</v>
+        <v>3.072946785920294e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>8.097435610920911e-09</v>
+        <v>3.072946785920294e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>59.68265486297077</v>
+        <v>71.75532622478282</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.336520244387565, 75.02878948155399]</t>
+          <t>[57.402012367866384, 86.10864008169926]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.038181066259085e-10</v>
+        <v>4.192202140984591e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>6.038181066259085e-10</v>
+        <v>4.192202140984591e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>15.40174174174206</v>
+        <v>17.65913913913951</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.55521521521548</v>
+        <v>15.31815815815848</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.24826826826865</v>
+        <v>20.00012012012054</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.620515806168072e-05</v>
+        <v>5.652716093640375e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>8.620515806168072e-05</v>
+        <v>5.652716093640375e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>46.8104074483945</v>
+        <v>55.21524305057397</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.65149821398147, 71.96931668280753]</t>
+          <t>[30.250830181235415, 80.17965591991252]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0005068463263604439</v>
+        <v>5.510963149801817e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0005068463263604439</v>
+        <v>5.510963149801817e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.918289808498272</v>
+        <v>1.591237119836272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3145002294299637, 2.5220793875665812]</t>
+          <t>[0.9748685912040402, 2.207605648468504]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.968715509676372e-08</v>
+        <v>4.718438163964223e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>7.968715509676372e-08</v>
+        <v>4.718438163964223e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>57.72744758723398</v>
+        <v>74.45521014998062</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.46440221351139, 71.99049296095657]</t>
+          <t>[58.10892472275975, 90.80149557720148]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.075004612578368e-10</v>
+        <v>7.208900143496066e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.075004612578368e-10</v>
+        <v>7.208900143496066e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>17.63829829829866</v>
+        <v>18.9823023023027</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.19841841841873</v>
+        <v>16.48864864864899</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.0781781781786</v>
+        <v>21.4759559559564</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.630447615281639e-08</v>
+        <v>0.01405125514016514</v>
       </c>
       <c r="I4" t="n">
-        <v>2.630447615281639e-08</v>
+        <v>0.01405125514016514</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>68.54609304174998</v>
+        <v>36.76605274812894</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[42.682840305793235, 94.40934577770673]</t>
+          <t>[5.1693095711223975, 68.36279592513549]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.962290664321188e-06</v>
+        <v>0.02357500463644779</v>
       </c>
       <c r="O4" t="n">
-        <v>2.962290664321188e-06</v>
+        <v>0.02357500463644779</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9874475407679633</v>
+        <v>0.9497106920761942</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5975001042863477, 1.3773949772495788]</t>
+          <t>[-0.08176317216549922, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.584040368240451e-06</v>
+        <v>0.07023503948152188</v>
       </c>
       <c r="S4" t="n">
-        <v>6.584040368240451e-06</v>
+        <v>0.07023503948152188</v>
       </c>
       <c r="T4" t="n">
-        <v>71.30694251198167</v>
+        <v>60.49944423562408</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[57.86874547785165, 84.7451395461117]</t>
+          <t>[43.473482607348046, 77.5254058639001]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.217248937900877e-14</v>
+        <v>5.967864868949846e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>6.217248937900877e-14</v>
+        <v>5.967864868949846e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>21.39977977978022</v>
+        <v>21.57773773773819</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.82402402402444</v>
+        <v>17.40468468468505</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.97553553553601</v>
+        <v>25.75079079079133</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006519423513267064</v>
+        <v>7.022131074951865e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006519423513267064</v>
+        <v>7.022131074951865e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>39.61946287709964</v>
+        <v>53.27125574198517</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.076551767218454, 63.16237398698083]</t>
+          <t>[27.256244855432733, 79.28626662853762]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.00146597567370077</v>
+        <v>0.0001580939900434064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00146597567370077</v>
+        <v>0.0001580939900434064</v>
       </c>
       <c r="P5" t="n">
-        <v>1.478026573760964</v>
+        <v>0.723289599925578</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 2.207605648468504]</t>
+          <t>[0.25786846606042335, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0001815290944746639</v>
+        <v>0.00306643169770493</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0001815290944746639</v>
+        <v>0.00306643169770493</v>
       </c>
       <c r="T5" t="n">
-        <v>45.15786518443392</v>
+        <v>60.21990357010722</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[31.27836826691128, 59.03736210195657]</t>
+          <t>[46.86765972546276, 73.57214741475168]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.701324174405386e-08</v>
+        <v>9.652723065300961e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>4.701324174405386e-08</v>
+        <v>9.652723065300961e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>19.41737737737778</v>
+        <v>22.49377377377425</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.46918918918953</v>
+        <v>20.61081081081124</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.36556556556603</v>
+        <v>24.37673673673725</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6.991083552199129e-05</v>
+        <v>0.0007079921887179763</v>
       </c>
       <c r="I6" t="n">
-        <v>6.991083552199129e-05</v>
+        <v>0.0007079921887179763</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>54.87445382230805</v>
+        <v>50.32655209267406</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[26.209317246673407, 83.53959039794269]</t>
+          <t>[18.64455036765861, 82.00855381768952]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0003643682061704734</v>
+        <v>0.002524498741894643</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003643682061704734</v>
+        <v>0.002524498741894643</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3962369112635775</v>
+        <v>0.4717106086471157</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.16981581911296129, 0.9622896416401163]</t>
+          <t>[-0.20755266780473214, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1654518328924302</v>
+        <v>0.1687626070242352</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1654518328924302</v>
+        <v>0.1687626070242352</v>
       </c>
       <c r="T6" t="n">
-        <v>68.70727980016761</v>
+        <v>66.92122850535324</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[53.1441872059995, 84.27037239433572]</t>
+          <t>[50.070072860328224, 83.77238415037826]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.802646920623374e-11</v>
+        <v>3.462850006741292e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.802646920623374e-11</v>
+        <v>3.462850006741292e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>23.78882882882932</v>
+        <v>23.51159159159209</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.50144144144189</v>
+        <v>20.76348348348392</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.07621621621676</v>
+        <v>26.25969969970026</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9714597039886e-06</v>
+        <v>0.000243306912573682</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9714597039886e-06</v>
+        <v>0.000243306912573682</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>52.486254718776</v>
+        <v>53.0790778927283</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[27.583625598703037, 77.38888383884895]</t>
+          <t>[27.099504266392117, 79.05865151906448]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001079060267958898</v>
+        <v>0.0001627736436622396</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001079060267958898</v>
+        <v>0.0001627736436622396</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6478159025420398</v>
+        <v>-0.02515789912784605</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.1823947686768852, 1.1132370364071944]</t>
+          <t>[-0.6666843268879239, 0.6163685286322318]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.007435601879687059</v>
+        <v>0.9373951885897416</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007435601879687059</v>
+        <v>0.9373951885897416</v>
       </c>
       <c r="T7" t="n">
-        <v>60.52033325502392</v>
+        <v>60.96037627142255</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[47.79673749582996, 73.24392901421788]</t>
+          <t>[44.5425322369811, 77.378220305864]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.958433415438776e-12</v>
+        <v>1.999921561690599e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.958433415438776e-12</v>
+        <v>1.999921561690599e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>22.77221221221269</v>
+        <v>0.101781781781785</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.89147147147191</v>
+        <v>-2.493653653653705</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.65295295295347</v>
+        <v>2.697217217217275</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002952439554201325</v>
+        <v>0.0001687087120609831</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002952439554201325</v>
+        <v>0.0001687087120609831</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.401797065853</v>
+        <v>50.75486590010184</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[21.489420541757937, 71.31417358994807]</t>
+          <t>[25.58455014772798, 75.9251816524757]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0005006614409375221</v>
+        <v>0.0001926247470804832</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0005006614409375221</v>
+        <v>0.0001926247470804832</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1195000208572692</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.5471843060306556, 0.786184347745194]</t>
+          <t>[-0.729579074707539, 0.5534737808126149]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.719774988556952</v>
+        <v>0.783471631663446</v>
       </c>
       <c r="S8" t="n">
-        <v>0.719774988556952</v>
+        <v>0.783471631663446</v>
       </c>
       <c r="T8" t="n">
-        <v>57.09634558901191</v>
+        <v>60.87429236424922</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.59309016075664, 71.59960101726719]</t>
+          <t>[45.55205702308264, 76.1965277054158]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.372209261305215e-10</v>
+        <v>3.425097983011938e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>4.372209261305215e-10</v>
+        <v>3.425097983011938e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>24.90710710710763</v>
+        <v>0.3562362362362457</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.21307307307353</v>
+        <v>-2.23919919919924</v>
       </c>
       <c r="Z8" t="n">
-        <v>27.60114114114172</v>
+        <v>2.951671671671732</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.388801900709563e-05</v>
+        <v>0.0004643196708664643</v>
       </c>
       <c r="I9" t="n">
-        <v>7.388801900709563e-05</v>
+        <v>0.0004643196708664643</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>60.2617323149505</v>
+        <v>45.17189316468906</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[26.481274700176883, 94.04218992972412]</t>
+          <t>[17.811940928619293, 72.53184540075883]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0008060530660731757</v>
+        <v>0.001763994880932263</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0008060530660731757</v>
+        <v>0.001763994880932263</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4780000834290776</v>
+        <v>-0.4905790329930007</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.0440528138056173, 0.08805264694746207]</t>
+          <t>[-1.1446844103170015, 0.16352634433100022]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.09588264994104545</v>
+        <v>0.1378868762615157</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09588264994104545</v>
+        <v>0.1378868762615157</v>
       </c>
       <c r="T9" t="n">
-        <v>54.43704629590332</v>
+        <v>64.27133249389736</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[36.502335988318585, 72.37175660348805]</t>
+          <t>[48.95775536409134, 79.58490962370338]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.118743247514487e-07</v>
+        <v>7.618905506490137e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.118743247514487e-07</v>
+        <v>7.618905506490137e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>1.733773773773784</v>
+        <v>1.776276276276288</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.3193793793793818</v>
+        <v>-0.5920920920920918</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.78692692692695</v>
+        <v>4.144644644644668</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.644060747651999e-06</v>
+        <v>0.006724729511894623</v>
       </c>
       <c r="I10" t="n">
-        <v>1.644060747651999e-06</v>
+        <v>0.006724729511894623</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>59.91985440137283</v>
+        <v>34.06224130332244</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[36.56133639912639, 83.27837240361927]</t>
+          <t>[8.899314910246332, 59.22516769639854]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.271595057809719e-06</v>
+        <v>0.009092215197006981</v>
       </c>
       <c r="O10" t="n">
-        <v>5.271595057809719e-06</v>
+        <v>0.009092215197006981</v>
       </c>
       <c r="P10" t="n">
         <v>-0.1132105460753081</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 0.37736848691769254]</t>
+          <t>[-1.1006580868432714, 0.8742369946926551]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.6443208547491175</v>
+        <v>0.8184265041470311</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6443208547491175</v>
+        <v>0.8184265041470311</v>
       </c>
       <c r="T10" t="n">
-        <v>69.07441530223871</v>
+        <v>56.94160704469246</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[54.58304681633412, 83.56578378814329]</t>
+          <t>[42.09530291672576, 71.78791117265916]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.836308882730009e-12</v>
+        <v>8.692047082092813e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.836308882730009e-12</v>
+        <v>8.692047082092813e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4106306306306315</v>
+        <v>0.4099099099099135</v>
       </c>
       <c r="Y10" t="n">
-        <v>-1.368768768768777</v>
+        <v>-3.165415415415431</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.19003003003004</v>
+        <v>3.985235235235258</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002166461153270127</v>
+        <v>0.0002662151251378031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002166461153270127</v>
+        <v>0.0002662151251378031</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>38.04349891856677</v>
+        <v>56.14508260990308</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[17.308563769758152, 58.778434067375386]</t>
+          <t>[27.252875662121525, 85.03728955768464]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0005931732533048795</v>
+        <v>0.000304568869721189</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0005931732533048795</v>
+        <v>0.000304568869721189</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1069210712933462</v>
+        <v>0.04402632347373014</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.5471843060306547, 0.761026448617347]</t>
+          <t>[-0.6478159025420407, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.7435105080852005</v>
+        <v>0.8985853663154915</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7435105080852005</v>
+        <v>0.8985853663154915</v>
       </c>
       <c r="T11" t="n">
-        <v>55.21393326653209</v>
+        <v>64.76470474359023</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.977708682195555, 67.45015785086864]</t>
+          <t>[46.416714230146454, 83.112695257034]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.512612919593266e-12</v>
+        <v>7.015923397801771e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>9.512612919593266e-12</v>
+        <v>7.015923397801771e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>22.4021821821823</v>
+        <v>22.59059059059071</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.02964964964976</v>
+        <v>20.08558558558569</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.77471471471485</v>
+        <v>25.09559559559573</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05697489739808592</v>
+        <v>2.852114235629699e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05697489739808592</v>
+        <v>2.852114235629699e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>24.25428910404418</v>
+        <v>53.02873800639202</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.2873189909030884, 50.79589719899144]</t>
+          <t>[27.25288418071439, 78.80459183206965]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07229013620540226</v>
+        <v>0.000148762199611463</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07229013620540226</v>
+        <v>0.000148762199611463</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3585000625718076</v>
+        <v>0.2327105669325773</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.2201581077005406, 1.9371582328441557]</t>
+          <t>[-0.3333421634439615, 0.7987632973091161]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.6495942654292972</v>
+        <v>0.4120289891585986</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6495942654292972</v>
+        <v>0.4120289891585986</v>
       </c>
       <c r="T12" t="n">
-        <v>59.82357869191343</v>
+        <v>72.27743927498216</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.638835512396184, 74.00832187143067]</t>
+          <t>[57.355513354415145, 87.19936519554918]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>6.648992467717108e-11</v>
+        <v>1.121991388686183e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>6.648992467717108e-11</v>
+        <v>1.121991388686183e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>21.48966966966979</v>
+        <v>21.90740740740752</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.76365365365374</v>
+        <v>19.85785785785796</v>
       </c>
       <c r="Z12" t="n">
-        <v>27.21568568568583</v>
+        <v>23.95695695695708</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001112187805295983</v>
+        <v>0.05058194744192357</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001112187805295983</v>
+        <v>0.05058194744192357</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>55.07211784381073</v>
+        <v>23.44132444620587</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[18.833165127021942, 91.31107056059952]</t>
+          <t>[-1.1731722781620562, 48.05582117057379]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.003715098017620821</v>
+        <v>0.06145613964363728</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003715098017620821</v>
+        <v>0.06145613964363728</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9874475407679633</v>
+        <v>0.9748685912040393</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.32076321388003937, 1.6541318676558872]</t>
+          <t>[-0.9497106920761951, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.004595731194812602</v>
+        <v>0.3130798716238361</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004595731194812602</v>
+        <v>0.3130798716238361</v>
       </c>
       <c r="T13" t="n">
-        <v>64.47330128646543</v>
+        <v>49.06659274478724</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[45.051796621196246, 83.89480595173461]</t>
+          <t>[36.01641555423315, 62.11676993534134]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.979705437944347e-08</v>
+        <v>1.453507536552934e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.979705437944347e-08</v>
+        <v>1.453507536552934e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>19.20838838838849</v>
+        <v>19.22022022022032</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.79023023023032</v>
+        <v>12.25175175175181</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.62654654654666</v>
+        <v>26.18868868868883</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000318232643951033</v>
+        <v>0.001396821704571338</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000318232643951033</v>
+        <v>0.001396821704571338</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>57.16335336775269</v>
+        <v>45.24438652078514</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[27.066580094395476, 87.2601266411099]</t>
+          <t>[15.677244087745592, 74.81152895382469]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0003997075653361382</v>
+        <v>0.003503713326623359</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0003997075653361382</v>
+        <v>0.003503713326623359</v>
       </c>
       <c r="P14" t="n">
-        <v>1.654131867655887</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.0000264903318863, 2.308237244979888]</t>
+          <t>[0.5723422051585008, 2.0063424554457328]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.737062885564526e-06</v>
+        <v>0.0007396080075683376</v>
       </c>
       <c r="S14" t="n">
-        <v>6.737062885564526e-06</v>
+        <v>0.0007396080075683376</v>
       </c>
       <c r="T14" t="n">
-        <v>79.27857276961092</v>
+        <v>61.31317244392514</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[61.17282800549947, 97.38431753372237]</t>
+          <t>[45.197423220750935, 77.42892166709935]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.286282274610585e-11</v>
+        <v>1.072052224770914e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>2.286282274610585e-11</v>
+        <v>1.072052224770914e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>16.79023023023032</v>
+        <v>18.08158158158168</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.41769769769778</v>
+        <v>15.48548548548557</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.16276276276287</v>
+        <v>20.67767767767779</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0003720077784652442</v>
+        <v>0.0005668283149206088</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003720077784652442</v>
+        <v>0.0005668283149206088</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>49.12484949135948</v>
+        <v>49.48891681082716</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[20.241946904823067, 78.0077520778959]</t>
+          <t>[23.446850914124994, 75.53098270752933]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.001319644435348044</v>
+        <v>0.000397187699826107</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001319644435348044</v>
+        <v>0.000397187699826107</v>
       </c>
       <c r="P15" t="n">
-        <v>1.276763380738194</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.9308687580621946]</t>
+          <t>[0.8868159442565782, 2.270500396288118]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.0002885930403455639</v>
+        <v>3.486492685800258e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0002885930403455639</v>
+        <v>3.486492685800258e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>62.38731630557959</v>
+        <v>69.30760022748248</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[46.65623846742359, 78.11839414373559]</t>
+          <t>[52.97902148603157, 85.6361789689334]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.592608432967381e-10</v>
+        <v>5.552380777373855e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>3.592608432967381e-10</v>
+        <v>5.552380777373855e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>18.1589989989991</v>
+        <v>17.03403403403412</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.78646646646655</v>
+        <v>14.5290290290291</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.53153153153164</v>
+        <v>19.53903903903914</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01125615344055608</v>
+        <v>0.3749206833306733</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01125615344055608</v>
+        <v>0.3749206833306733</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>38.92057884550857</v>
+        <v>13.77851445091377</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[7.905894826290904, 69.93526286472624]</t>
+          <t>[-11.504641834927526, 39.06167073675507]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.01506867750718777</v>
+        <v>0.2782082021232442</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01506867750718777</v>
+        <v>0.2782082021232442</v>
       </c>
       <c r="P16" t="n">
-        <v>1.742184514603348</v>
+        <v>1.880552959806502</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0.698131700797731, 2.7862373284089657]</t>
+          <t>[-1.2327370572644636, 4.993842976877469]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.001592312276581964</v>
+        <v>0.2300992223298954</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001592312276581964</v>
+        <v>0.2300992223298954</v>
       </c>
       <c r="T16" t="n">
-        <v>58.5595951269416</v>
+        <v>50.65868003933571</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[41.31843024268419, 75.80076001119902]</t>
+          <t>[37.02410278402016, 64.29325729465126]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.755010958781611e-08</v>
+        <v>1.967413787440364e-09</v>
       </c>
       <c r="W16" t="n">
-        <v>1.755010958781611e-08</v>
+        <v>1.967413787440364e-09</v>
       </c>
       <c r="X16" t="n">
-        <v>16.47085085085094</v>
+        <v>15.94094094094103</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.683923923924</v>
+        <v>4.668418418418446</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.25777777777789</v>
+        <v>27.2134634634636</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_2_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_2_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.436315094629272e-05</v>
+        <v>0.0001322217050839791</v>
       </c>
       <c r="I2" t="n">
-        <v>3.436315094629272e-05</v>
+        <v>0.0001322217050839791</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.88170959139953</v>
+        <v>42.27641050276298</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[24.483702775165867, 75.27971640763319]</t>
+          <t>[17.68091690326537, 66.87190410226059]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002676659720017849</v>
+        <v>0.001186787885831819</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002676659720017849</v>
+        <v>0.001186787885831819</v>
       </c>
       <c r="P2" t="n">
-        <v>1.918289808498272</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 2.496921488438735]</t>
+          <t>[1.4025528763774249, 2.6101320345140424]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.072946785920294e-08</v>
+        <v>2.914071983717292e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>3.072946785920294e-08</v>
+        <v>2.914071983717292e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>71.75532622478282</v>
+        <v>54.65789299712746</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[57.402012367866384, 86.10864008169926]</t>
+          <t>[41.518479396735316, 67.79730659751961]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>9.763656549921507e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>9.763656549921507e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.65913913913951</v>
+        <v>17.07827827827861</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.31815815815848</v>
+        <v>14.66722722722751</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.00012012012054</v>
+        <v>19.48932932932971</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.652716093640375e-05</v>
+        <v>1.509736593896527e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>5.652716093640375e-05</v>
+        <v>1.509736593896527e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>55.21524305057397</v>
+        <v>58.20945465930904</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[30.250830181235415, 80.17965591991252]</t>
+          <t>[33.25596901884823, 83.16294029976984]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.510963149801817e-05</v>
+        <v>2.493554566540546e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>5.510963149801817e-05</v>
+        <v>2.493554566540546e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.591237119836272</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9748685912040402, 2.207605648468504]</t>
+          <t>[1.0629212381515023, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.718438163964223e-06</v>
+        <v>3.435327078360473e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>4.718438163964223e-06</v>
+        <v>3.435327078360473e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>74.45521014998062</v>
+        <v>62.77874910193221</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[58.10892472275975, 90.80149557720148]</t>
+          <t>[46.9562159889509, 78.60128221491351]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.208900143496066e-12</v>
+        <v>3.548834559552461e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>7.208900143496066e-12</v>
+        <v>3.548834559552461e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>18.9823023023027</v>
+        <v>18.68564564564601</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.48864864864899</v>
+        <v>16.52574574574606</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4759559559564</v>
+        <v>20.84554554554595</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01405125514016514</v>
+        <v>0.00995126516138134</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01405125514016514</v>
+        <v>0.00995126516138134</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>36.76605274812894</v>
+        <v>35.2475709570606</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[5.1693095711223975, 68.36279592513549]</t>
+          <t>[6.110975505052252, 64.38416640906894]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02357500463644779</v>
+        <v>0.01884899607846546</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02357500463644779</v>
+        <v>0.01884899607846546</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9497106920761942</v>
+        <v>0.81134224687304</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.08176317216549922, 1.9811845563178876]</t>
+          <t>[0.09434212172942313, 1.528342372016657]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.07023503948152188</v>
+        <v>0.02745442222067518</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07023503948152188</v>
+        <v>0.02745442222067518</v>
       </c>
       <c r="T4" t="n">
-        <v>60.49944423562408</v>
+        <v>54.26297834506873</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.473482607348046, 77.5254058639001]</t>
+          <t>[38.69725781683394, 69.82869887330352]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.967864868949846e-09</v>
+        <v>9.475928042235182e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>5.967864868949846e-09</v>
+        <v>9.475928042235182e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>21.57773773773819</v>
+        <v>21.85015015015057</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.40468468468505</v>
+        <v>18.98702702702739</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.75079079079133</v>
+        <v>24.71327327327375</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.022131074951865e-06</v>
+        <v>0.1550481736073875</v>
       </c>
       <c r="I5" t="n">
-        <v>7.022131074951865e-06</v>
+        <v>0.1550481736073875</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>53.27125574198517</v>
+        <v>25.13416573705745</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[27.256244855432733, 79.28626662853762]</t>
+          <t>[-8.887759582681863, 59.156091056796754]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001580939900434064</v>
+        <v>0.1437395669945842</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001580939900434064</v>
+        <v>0.1437395669945842</v>
       </c>
       <c r="P5" t="n">
-        <v>0.723289599925578</v>
+        <v>0.7861843477451931</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.25786846606042335, 1.1887107337907326]</t>
+          <t>[-2.3522635684536186, 3.9246322639440048]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.00306643169770493</v>
+        <v>0.6163472828470189</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00306643169770493</v>
+        <v>0.6163472828470189</v>
       </c>
       <c r="T5" t="n">
-        <v>60.21990357010722</v>
+        <v>62.53408962881032</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.86765972546276, 73.57214741475168]</t>
+          <t>[44.52760926724618, 80.54056999037446]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.652723065300961e-12</v>
+        <v>1.037558283734086e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>9.652723065300961e-12</v>
+        <v>1.037558283734086e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>22.49377377377425</v>
+        <v>21.95061061061104</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.61081081081124</v>
+        <v>9.418168168168355</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.37673673673725</v>
+        <v>34.48305305305372</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007079921887179763</v>
+        <v>3.786973216124423e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007079921887179763</v>
+        <v>3.786973216124423e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.32655209267406</v>
+        <v>60.60424121455399</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[18.64455036765861, 82.00855381768952]</t>
+          <t>[34.86420250101057, 86.34427992809742]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002524498741894643</v>
+        <v>2.159412551416828e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002524498741894643</v>
+        <v>2.159412551416828e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4717106086471157</v>
+        <v>0.735868549489501</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.20755266780473214, 1.1509738850989635]</t>
+          <t>[0.3333421634439615, 1.1383949355350405]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1687626070242352</v>
+        <v>0.0006175057258730465</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1687626070242352</v>
+        <v>0.0006175057258730465</v>
       </c>
       <c r="T6" t="n">
-        <v>66.92122850535324</v>
+        <v>63.50640281250831</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.070072860328224, 83.77238415037826]</t>
+          <t>[50.305010296799495, 76.70779532821713]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.462850006741292e-10</v>
+        <v>1.38578037933712e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>3.462850006741292e-10</v>
+        <v>1.38578037933712e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>23.51159159159209</v>
+        <v>22.15153153153196</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.76348348348392</v>
+        <v>20.54416416416456</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.25969969970026</v>
+        <v>23.75889889889936</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000243306912573682</v>
+        <v>3.258260478089525e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000243306912573682</v>
+        <v>3.258260478089525e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.0790778927283</v>
+        <v>70.7792939729882</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[27.099504266392117, 79.05865151906448]</t>
+          <t>[43.22913283093746, 98.32945511503894]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001627736436622396</v>
+        <v>5.135214500517904e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001627736436622396</v>
+        <v>5.135214500517904e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.02515789912784605</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.6666843268879239, 0.6163685286322318]</t>
+          <t>[-0.05660527303765406, 0.798763297309117]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.9373951885897416</v>
+        <v>0.08736668263752678</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9373951885897416</v>
+        <v>0.08736668263752678</v>
       </c>
       <c r="T7" t="n">
-        <v>60.96037627142255</v>
+        <v>73.05296053172</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.5425322369811, 77.378220305864]</t>
+          <t>[57.909690839677125, 88.19623022376288]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.999921561690599e-09</v>
+        <v>1.271205363195804e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.999921561690599e-09</v>
+        <v>1.271205363195804e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>0.101781781781785</v>
+        <v>23.60820820820866</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.493653653653705</v>
+        <v>21.9003803803808</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.697217217217275</v>
+        <v>25.31603603603653</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001687087120609831</v>
+        <v>0.02491692270968338</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001687087120609831</v>
+        <v>0.02491692270968338</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.75486590010184</v>
+        <v>30.68228417199665</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[25.58455014772798, 75.9251816524757]</t>
+          <t>[2.594892218466711, 58.769676125526594]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001926247470804832</v>
+        <v>0.03296993080971533</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001926247470804832</v>
+        <v>0.03296993080971533</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.08805264694746207</v>
+        <v>0.2578684660604234</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.729579074707539, 0.5534737808126149]</t>
+          <t>[-0.9434212172942322, 1.459158149415079]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.783471631663446</v>
+        <v>0.6675542465861848</v>
       </c>
       <c r="S8" t="n">
-        <v>0.783471631663446</v>
+        <v>0.6675542465861848</v>
       </c>
       <c r="T8" t="n">
-        <v>60.87429236424922</v>
+        <v>63.36696790095881</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.55205702308264, 76.1965277054158]</t>
+          <t>[48.29597740880376, 78.43795839311386]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.425097983011938e-10</v>
+        <v>7.245115618559339e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.425097983011938e-10</v>
+        <v>7.245115618559339e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3562362362362457</v>
+        <v>24.06028028028074</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.23919919919924</v>
+        <v>19.26329329329366</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.951671671671732</v>
+        <v>28.85726726726782</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004643196708664643</v>
+        <v>0.000139923543614362</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004643196708664643</v>
+        <v>0.000139923543614362</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>45.17189316468906</v>
+        <v>51.78789841679212</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[17.811940928619293, 72.53184540075883]</t>
+          <t>[25.64093889398221, 77.93485793960203]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001763994880932263</v>
+        <v>0.0002412167902883233</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001763994880932263</v>
+        <v>0.0002412167902883233</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4905790329930007</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.1446844103170015, 0.16352634433100022]</t>
+          <t>[-0.717000125143616, 0.6163685286322318]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1378868762615157</v>
+        <v>0.8798602608782837</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1378868762615157</v>
+        <v>0.8798602608782837</v>
       </c>
       <c r="T9" t="n">
-        <v>64.27133249389736</v>
+        <v>67.74082211000309</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.95775536409134, 79.58490962370338]</t>
+          <t>[51.59935816696957, 83.88228605303661]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.618905506490137e-11</v>
+        <v>7.635159171570649e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>7.618905506490137e-11</v>
+        <v>7.635159171570649e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>1.776276276276288</v>
+        <v>0.1837837837837846</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.5920920920920918</v>
+        <v>-2.251351351351365</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.144644644644668</v>
+        <v>2.618918918918935</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006724729511894623</v>
+        <v>1.273074599394963e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006724729511894623</v>
+        <v>1.273074599394963e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>34.06224130332244</v>
+        <v>55.62557591837195</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[8.899314910246332, 59.22516769639854]</t>
+          <t>[31.01333175390694, 80.23782008283696]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.009092215197006981</v>
+        <v>4.020570076668228e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.009092215197006981</v>
+        <v>4.020570076668228e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1132105460753081</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.1006580868432714, 0.8742369946926551]</t>
+          <t>[-0.6289474781961548, 0.4528421843012307]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.8184265041470311</v>
+        <v>0.7445251110053994</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8184265041470311</v>
+        <v>0.7445251110053994</v>
       </c>
       <c r="T10" t="n">
-        <v>56.94160704469246</v>
+        <v>62.09399044341056</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.09530291672576, 71.78791117265916]</t>
+          <t>[47.14209530010518, 77.04588558671594]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.692047082092813e-10</v>
+        <v>1.022599782629641e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>8.692047082092813e-10</v>
+        <v>1.022599782629641e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4099099099099135</v>
+        <v>0.3216216216216239</v>
       </c>
       <c r="Y10" t="n">
-        <v>-3.165415415415431</v>
+        <v>-1.654054054054063</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.985235235235258</v>
+        <v>2.297297297297311</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002662151251378031</v>
+        <v>0.0008303116526598986</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002662151251378031</v>
+        <v>0.0008303116526598986</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>56.14508260990308</v>
+        <v>49.36285381664397</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[27.252875662121525, 85.03728955768464]</t>
+          <t>[17.76543181071891, 80.96027582256903]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.000304568869721189</v>
+        <v>0.002928417029010699</v>
       </c>
       <c r="O11" t="n">
-        <v>0.000304568869721189</v>
+        <v>0.002928417029010699</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04402632347373014</v>
+        <v>0.3710790121357324</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.6478159025420407, 0.735868549489501]</t>
+          <t>[-0.34592111300788275, 1.0880791372793475]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.8985853663154915</v>
+        <v>0.3028002846841726</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8985853663154915</v>
+        <v>0.3028002846841726</v>
       </c>
       <c r="T11" t="n">
-        <v>64.76470474359023</v>
+        <v>63.26617025601146</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.416714230146454, 83.112695257034]</t>
+          <t>[45.81623271985458, 80.71610779216834]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.015923397801771e-09</v>
+        <v>3.63739394160234e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>7.015923397801771e-09</v>
+        <v>3.63739394160234e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>22.59059059059071</v>
+        <v>21.59459459459473</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.08558558558569</v>
+        <v>18.9756756756758</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.09559559559573</v>
+        <v>24.21351351351366</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.852114235629699e-05</v>
+        <v>0.0003387750544400214</v>
       </c>
       <c r="I12" t="n">
-        <v>2.852114235629699e-05</v>
+        <v>0.0003387750544400214</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>53.02873800639202</v>
+        <v>50.75531378442713</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[27.25288418071439, 78.80459183206965]</t>
+          <t>[20.731199181218017, 80.77942838763624]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.000148762199611463</v>
+        <v>0.001402091520809723</v>
       </c>
       <c r="O12" t="n">
-        <v>0.000148762199611463</v>
+        <v>0.001402091520809723</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2327105669325773</v>
+        <v>0.5094474573388856</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.3333421634439615, 0.7987632973091161]</t>
+          <t>[-0.11950002085727007, 1.1383949355350413]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.4120289891585986</v>
+        <v>0.109780787176107</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4120289891585986</v>
+        <v>0.109780787176107</v>
       </c>
       <c r="T12" t="n">
-        <v>72.27743927498216</v>
+        <v>69.27536820106474</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[57.355513354415145, 87.19936519554918]</t>
+          <t>[52.62979673048987, 85.9209396716396]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.121991388686183e-12</v>
+        <v>9.637490805403104e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.121991388686183e-12</v>
+        <v>9.637490805403104e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>21.90740740740752</v>
+        <v>21.08918918918932</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.85785785785796</v>
+        <v>18.79189189189201</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.95695695695708</v>
+        <v>23.38648648648664</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05058194744192357</v>
+        <v>0.04925106773049992</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05058194744192357</v>
+        <v>0.04925106773049992</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>23.44132444620587</v>
+        <v>32.81804834812402</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.1731722781620562, 48.05582117057379]</t>
+          <t>[-2.24270095696815, 67.8787976532162]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.06145613964363728</v>
+        <v>0.06586005232384418</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06145613964363728</v>
+        <v>0.06586005232384418</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9748685912040393</v>
+        <v>0.9119738433844251</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.9497106920761951, 2.8994478744842738]</t>
+          <t>[-0.8868159442565773, 2.7107636310254275]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.3130798716238361</v>
+        <v>0.3126483810760257</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3130798716238361</v>
+        <v>0.3126483810760257</v>
       </c>
       <c r="T13" t="n">
-        <v>49.06659274478724</v>
+        <v>74.88082823176566</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[36.01641555423315, 62.11676993534134]</t>
+          <t>[56.61459307663531, 93.14706338689601]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.453507536552934e-09</v>
+        <v>1.46293643865647e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>1.453507536552934e-09</v>
+        <v>1.46293643865647e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22022022022032</v>
+        <v>19.61891891891904</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.25175175175181</v>
+        <v>13.04864864864873</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.18868868868883</v>
+        <v>26.18918918918936</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001396821704571338</v>
+        <v>0.0002016713594484854</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001396821704571338</v>
+        <v>0.0002016713594484854</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>45.24438652078514</v>
+        <v>46.56073512343517</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[15.677244087745592, 74.81152895382469]</t>
+          <t>[19.998896676182568, 73.12257357068778]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.003503713326623359</v>
+        <v>0.0009700325172707913</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003503713326623359</v>
+        <v>0.0009700325172707913</v>
       </c>
       <c r="P14" t="n">
-        <v>1.289342330302117</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 2.0063424554457328]</t>
+          <t>[0.5471843060306556, 1.8050792624229635]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0007396080075683376</v>
+        <v>0.000478517453142091</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0007396080075683376</v>
+        <v>0.000478517453142091</v>
       </c>
       <c r="T14" t="n">
-        <v>61.31317244392514</v>
+        <v>58.5181530422276</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[45.197423220750935, 77.42892166709935]</t>
+          <t>[44.17112100256455, 72.86518508189064]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.072052224770914e-09</v>
+        <v>1.680231509482155e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>1.072052224770914e-09</v>
+        <v>1.680231509482155e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>18.08158158158168</v>
+        <v>18.65405405405417</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.48548548548557</v>
+        <v>16.35675675675687</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.67767767767779</v>
+        <v>20.95135135135148</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0005668283149206088</v>
+        <v>0.00136484246502111</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005668283149206088</v>
+        <v>0.00136484246502111</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>49.48891681082716</v>
+        <v>51.37639137365373</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[23.446850914124994, 75.53098270752933]</t>
+          <t>[16.8284547940097, 85.92432795329776]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.000397187699826107</v>
+        <v>0.00444761125415627</v>
       </c>
       <c r="O15" t="n">
-        <v>0.000397187699826107</v>
+        <v>0.00444761125415627</v>
       </c>
       <c r="P15" t="n">
-        <v>1.578658170272348</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 2.270500396288118]</t>
+          <t>[1.1887107337907326, 2.572395185822274]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.486492685800258e-05</v>
+        <v>1.866695571450805e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>3.486492685800258e-05</v>
+        <v>1.866695571450805e-06</v>
       </c>
       <c r="T15" t="n">
-        <v>69.30760022748248</v>
+        <v>71.07243114608417</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[52.97902148603157, 85.6361789689334]</t>
+          <t>[52.659861390575344, 89.485000901593]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>5.552380777373855e-11</v>
+        <v>7.355622777538429e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>5.552380777373855e-11</v>
+        <v>7.355622777538429e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>17.03403403403412</v>
+        <v>16.08108108108118</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5290290290291</v>
+        <v>13.55405405405414</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.53903903903914</v>
+        <v>18.60810810810823</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3749206833306733</v>
+        <v>2.910637001940497e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3749206833306733</v>
+        <v>2.910637001940497e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>13.77851445091377</v>
+        <v>57.03781576470175</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-11.504641834927526, 39.06167073675507]</t>
+          <t>[31.462797685125338, 82.61283384427817]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.2782082021232442</v>
+        <v>4.886769088541243e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2782082021232442</v>
+        <v>4.886769088541243e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>1.880552959806502</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.2327370572644636, 4.993842976877469]</t>
+          <t>[0.9497106920761942, 2.0315003545735797]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.2300992223298954</v>
+        <v>1.443859212635346e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2300992223298954</v>
+        <v>1.443859212635346e-06</v>
       </c>
       <c r="T16" t="n">
-        <v>50.65868003933571</v>
+        <v>56.60951813004103</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[37.02410278402016, 64.29325729465126]</t>
+          <t>[41.17867689500088, 72.04035936508117]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.967413787440364e-09</v>
+        <v>2.709874769024623e-09</v>
       </c>
       <c r="W16" t="n">
-        <v>1.967413787440364e-09</v>
+        <v>2.709874769024623e-09</v>
       </c>
       <c r="X16" t="n">
-        <v>15.94094094094103</v>
+        <v>17.50540540540552</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.668418418418446</v>
+        <v>15.52972972972983</v>
       </c>
       <c r="Z16" t="n">
-        <v>27.2134634634636</v>
+        <v>19.48108108108121</v>
       </c>
     </row>
   </sheetData>
